--- a/Python操作Excel/Ch08_自訂數值格式化儲存格的應用/out8_1.xlsx
+++ b/Python操作Excel/Ch08_自訂數值格式化儲存格的應用/out8_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5260" yWindow="1440" windowWidth="14080" windowHeight="6700" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5940" yWindow="2370" windowWidth="14080" windowHeight="6900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="數值" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,9 +17,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#.##"/>
     <numFmt numFmtId="165" formatCode="#0.##"/>
+    <numFmt numFmtId="166" formatCode="000.00"/>
+    <numFmt numFmtId="167" formatCode="#.00"/>
+    <numFmt numFmtId="168" formatCode="[Red]#.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +61,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -522,12 +528,41 @@
       <c r="B6" s="0" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>000.00</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
-    <row r="7"/>
-    <row r="8"/>
+    <row r="7">
+      <c r="B7" s="0" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>#.00</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="0" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[Red]#.00</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
